--- a/public/BankRates.xlsx
+++ b/public/BankRates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahim kh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UHCS - Kashaf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9972"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Bank Name</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>$50,000 Money Market</t>
+  </si>
+  <si>
+    <t>Date (mm/dd/YYYY)</t>
   </si>
 </sst>
 </file>
@@ -106,10 +109,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,25 +394,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -447,6 +452,9 @@
       </c>
       <c r="M1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/BankRates.xlsx
+++ b/public/BankRates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\UHCS - Kashaf\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\APY_Analyzer\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7632"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Bank Name</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Date (mm/dd/YYYY)</t>
+  </si>
+  <si>
+    <t>Zip Code</t>
   </si>
 </sst>
 </file>
@@ -394,66 +397,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="22.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
